--- a/Timing.xlsx
+++ b/Timing.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5BA7F6-295B-4B6D-95CA-63C7B9B3E33F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Heat" sheetId="1" r:id="rId1"/>
     <sheet name="BS" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="41">
   <si>
     <t>Thomas Algorithm</t>
   </si>
@@ -107,11 +107,56 @@
   <si>
     <t>BS</t>
   </si>
+  <si>
+    <t>64 bit</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Visual c++</t>
+  </si>
+  <si>
+    <t>32 bit</t>
+  </si>
+  <si>
+    <t>128x128</t>
+  </si>
+  <si>
+    <t>64x64</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>256x256</t>
+  </si>
+  <si>
+    <t>Crank Nicolson BS</t>
+  </si>
+  <si>
+    <t>Crank Nicolson Heat</t>
+  </si>
+  <si>
+    <t>64x64x64</t>
+  </si>
+  <si>
+    <t>128x128x128</t>
+  </si>
+  <si>
+    <t>256x256x256</t>
+  </si>
+  <si>
+    <t>in seconds</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -365,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,6 +529,33 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,31 +583,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -547,12 +598,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,11 +879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE333"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -869,38 +915,38 @@
   <sheetData>
     <row r="1" spans="2:17" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:17" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="H2" s="40" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="H2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
-      <c r="N2" s="40" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="N2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51"/>
     </row>
     <row r="3" spans="2:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -1420,38 +1466,38 @@
     <row r="20" spans="2:17" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:17" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:17" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="H22" s="40" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="H22" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="N22" s="40" t="s">
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="N22" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="42"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="51"/>
     </row>
     <row r="23" spans="2:17" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="45"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="54"/>
     </row>
     <row r="24" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
@@ -2038,7 +2084,9 @@
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="22"/>
+      <c r="B41" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -6396,11 +6444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6430,34 +6478,34 @@
   <sheetData>
     <row r="1" spans="2:15" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="22"/>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="M2" s="40" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="M2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="42"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="22"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="45"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -6902,28 +6950,28 @@
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="M21" s="40" t="s">
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="M21" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="42"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="51"/>
     </row>
     <row r="22" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="54"/>
     </row>
     <row r="23" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
@@ -7359,7 +7407,9 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="22"/>
+      <c r="B37" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -7473,11 +7523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0863502-0BF9-426D-B39C-B8B5F4771886}">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7490,18 +7540,18 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="61" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -7521,7 +7571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -7541,7 +7591,7 @@
         <v>0.34690001999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -7561,7 +7611,7 @@
         <v>0.26058069</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -7581,7 +7631,7 @@
         <v>0.32967009000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -7601,15 +7651,18 @@
         <v>0.26678940000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K7" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -7629,7 +7682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
@@ -7649,7 +7702,7 @@
         <v>0.31398776</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -7669,7 +7722,7 @@
         <v>0.24594994000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -7689,7 +7742,7 @@
         <v>0.29871744</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -7709,7 +7762,7 @@
         <v>0.24820786</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -7717,7 +7770,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
@@ -7737,7 +7790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -7757,7 +7810,7 @@
         <v>0.33156852999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
@@ -7812,19 +7865,19 @@
       <c r="B21" s="18">
         <v>0.10936348966920406</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="40">
         <v>0.13714429327607436</v>
       </c>
       <c r="D21" s="18">
         <v>0.12842154911666415</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="40">
         <v>0.15450147999114949</v>
       </c>
       <c r="F21" s="18">
         <v>0.13201440576451973</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="48">
         <v>0.15649229423509403</v>
       </c>
     </row>
@@ -7835,19 +7888,19 @@
       <c r="B22" s="18">
         <v>6.2540139782321313E-2</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="40">
         <v>0.13187489841401057</v>
       </c>
       <c r="D22" s="18">
         <v>5.9654326618061138E-2</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="40">
         <v>0.14436419917608934</v>
       </c>
       <c r="F22" s="18">
         <v>6.0555139369690036E-2</v>
       </c>
-      <c r="G22" s="57">
+      <c r="G22" s="48">
         <v>0.13677924484734461</v>
       </c>
     </row>
@@ -7858,19 +7911,19 @@
       <c r="B23" s="18">
         <v>4.2658178266323565E-2</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="40">
         <v>4.0732174111370645E-2</v>
       </c>
       <c r="D23" s="18">
         <v>7.0131175680126945E-2</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="40">
         <v>7.3623874908391285E-2</v>
       </c>
       <c r="F23" s="18">
         <v>8.5223745957663466E-2</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G23" s="48">
         <v>8.7597513016725359E-2</v>
       </c>
     </row>
@@ -7881,19 +7934,19 @@
       <c r="B24" s="20">
         <v>4.121346688356553E-2</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="46">
         <v>4.3143489241250221E-2</v>
       </c>
       <c r="D24" s="20">
         <v>7.2961204762682308E-2</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="46">
         <v>7.3607020797371803E-2</v>
       </c>
       <c r="F24" s="20">
         <v>8.2001608759568412E-2</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="47">
         <v>7.6463607624590813E-2</v>
       </c>
     </row>
@@ -7901,12 +7954,12 @@
       <c r="A25" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -7918,13 +7971,13 @@
       <c r="C26" s="16">
         <v>0.13962333621662959</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="40">
         <v>6.2266561296265843E-2</v>
       </c>
       <c r="E26" s="16">
         <v>0.14138546299232013</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="40">
         <v>7.3157283790451721E-2</v>
       </c>
       <c r="G26" s="16">
@@ -7941,13 +7994,13 @@
       <c r="C27" s="18">
         <v>1.7272968637888519E-2</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="40">
         <v>1.6352423592268073E-2</v>
       </c>
       <c r="E27" s="18">
         <v>3.8457672169767698E-2</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="40">
         <v>1.3219687915901224E-2</v>
       </c>
       <c r="G27" s="18">
@@ -7964,13 +8017,13 @@
       <c r="C28" s="18">
         <v>5.9044720459993982E-2</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="40">
         <v>-2.5188974262420283E-2</v>
       </c>
       <c r="E28" s="18">
         <v>5.3390347508705638E-2</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="40">
         <v>4.7851242855462495E-2</v>
       </c>
       <c r="G28" s="18">
@@ -7987,13 +8040,13 @@
       <c r="C29" s="20">
         <v>8.6091737354695441E-3</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="40">
         <v>5.8648903212628056E-2</v>
       </c>
       <c r="E29" s="20">
         <v>9.6238364140757149E-3</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="40">
         <v>6.7441456109182063E-2</v>
       </c>
       <c r="G29" s="20">
@@ -8004,12 +8057,12 @@
       <c r="A30" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="52"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
@@ -8024,13 +8077,13 @@
       <c r="D31" s="16">
         <v>0.19845143217919592</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="44">
         <v>0.11920578654092451</v>
       </c>
       <c r="F31" s="16">
         <v>0.11830138990978489</v>
       </c>
-      <c r="G31" s="54">
+      <c r="G31" s="45">
         <v>7.982227858506763E-2</v>
       </c>
     </row>
@@ -8047,13 +8100,13 @@
       <c r="D32" s="20">
         <v>8.0089379184151044E-2</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="46">
         <v>9.1504048743596855E-2</v>
       </c>
       <c r="F32" s="20">
         <v>4.8026017348170358E-2</v>
       </c>
-      <c r="G32" s="56">
+      <c r="G32" s="47">
         <v>2.8720931526882487E-2</v>
       </c>
     </row>
@@ -8083,7 +8136,7 @@
       <c r="A36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="40">
         <v>7.0831085870495247E-2</v>
       </c>
       <c r="C36" s="16">
@@ -8092,7 +8145,7 @@
       <c r="D36" s="18">
         <v>8.1908414714911837E-2</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="48">
         <v>4.541850714121376E-2</v>
       </c>
     </row>
@@ -8100,7 +8153,7 @@
       <c r="A37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="40">
         <v>0.13821159841891861</v>
       </c>
       <c r="C37" s="18">
@@ -8109,7 +8162,7 @@
       <c r="D37" s="18">
         <v>0.14296999338754035</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="48">
         <v>0.10128929748826976</v>
       </c>
     </row>
@@ -8117,7 +8170,7 @@
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="49">
+      <c r="B38" s="40">
         <v>8.7129606278444016E-2</v>
       </c>
       <c r="C38" s="18">
@@ -8126,7 +8179,7 @@
       <c r="D38" s="18">
         <v>0.11010971350826437</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="48">
         <v>0.15386246660018155</v>
       </c>
     </row>
@@ -8134,7 +8187,7 @@
       <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="55">
+      <c r="B39" s="46">
         <v>5.8293527375154142E-2</v>
       </c>
       <c r="C39" s="20">
@@ -8143,7 +8196,7 @@
       <c r="D39" s="20">
         <v>8.4840367444482645E-2</v>
       </c>
-      <c r="E39" s="56">
+      <c r="E39" s="47">
         <v>0.11976400838711598</v>
       </c>
     </row>
@@ -8151,19 +8204,19 @@
       <c r="A40" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="52"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="40">
         <v>3.7808527944885095E-2</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="40">
         <v>4.4134619890207616E-2</v>
       </c>
       <c r="D41" s="18">
@@ -8177,10 +8230,10 @@
       <c r="A42" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="40">
         <v>3.2590069457991699E-3</v>
       </c>
-      <c r="C42" s="49">
+      <c r="C42" s="40">
         <v>8.9824083379218767E-2</v>
       </c>
       <c r="D42" s="18">
@@ -8194,10 +8247,10 @@
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="40">
         <v>5.5502492119155367E-2</v>
       </c>
-      <c r="C43" s="49">
+      <c r="C43" s="40">
         <v>6.4685903757686347E-3</v>
       </c>
       <c r="D43" s="18">
@@ -8211,10 +8264,10 @@
       <c r="A44" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="55">
+      <c r="B44" s="46">
         <v>8.3524398027925439E-2</v>
       </c>
-      <c r="C44" s="55">
+      <c r="C44" s="46">
         <v>0.12195091425639215</v>
       </c>
       <c r="D44" s="20">
@@ -8228,10 +8281,10 @@
       <c r="A45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="43"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
@@ -8240,13 +8293,13 @@
       <c r="B46" s="15">
         <v>7.3011813374307399E-3</v>
       </c>
-      <c r="C46" s="54">
+      <c r="C46" s="45">
         <v>1.8549700478451947E-2</v>
       </c>
       <c r="D46" s="16">
         <v>7.6405833070050777E-2</v>
       </c>
-      <c r="E46" s="54">
+      <c r="E46" s="45">
         <v>7.1385782367562545E-2</v>
       </c>
     </row>
@@ -8257,13 +8310,13 @@
       <c r="B47" s="19">
         <v>6.4025772090198663E-2</v>
       </c>
-      <c r="C47" s="56">
+      <c r="C47" s="47">
         <v>8.8039809507969302E-2</v>
       </c>
       <c r="D47" s="20">
         <v>6.4025772090198663E-2</v>
       </c>
-      <c r="E47" s="56">
+      <c r="E47" s="47">
         <v>0.12278384614510285</v>
       </c>
     </row>
@@ -8454,4 +8507,237 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>0.10646332999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>0.11552248</v>
+      </c>
+      <c r="D8">
+        <v>1.81949227</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="63">
+        <f>ABS(C7/C11 - 1)</f>
+        <v>0.29380140069175587</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>0.15075551000000001</v>
+      </c>
+      <c r="F11" s="63">
+        <f>ABS(C8/C12 - 1)</f>
+        <v>0.36757137456932731</v>
+      </c>
+      <c r="G11" s="63">
+        <f>ABS(D8/D12 - 1)</f>
+        <v>0.2301546338831113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>0.18266484999999999</v>
+      </c>
+      <c r="D12">
+        <v>2.3634516099999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K16" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Timing.xlsx
+++ b/Timing.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="43">
   <si>
     <t>Thomas Algorithm</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>in seconds</t>
+  </si>
+  <si>
+    <t>128x64</t>
+  </si>
+  <si>
+    <t>64x64x32</t>
   </si>
 </sst>
 </file>
@@ -556,6 +562,7 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,7 +605,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,38 +921,38 @@
   <sheetData>
     <row r="1" spans="2:17" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:17" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="H2" s="49" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="H2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-      <c r="N2" s="49" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+      <c r="N2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="2:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -1466,38 +1472,38 @@
     <row r="20" spans="2:17" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:17" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:17" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="H22" s="49" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="H22" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="51"/>
-      <c r="N22" s="49" t="s">
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
+      <c r="N22" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="52"/>
     </row>
     <row r="23" spans="2:17" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="54"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="55"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
     </row>
     <row r="24" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
@@ -6478,34 +6484,34 @@
   <sheetData>
     <row r="1" spans="2:15" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="22"/>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="M2" s="49" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="M2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="22"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="55"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -6950,28 +6956,28 @@
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="M21" s="49" t="s">
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="M21" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
     </row>
     <row r="22" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="54"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
     </row>
     <row r="23" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
@@ -7541,15 +7547,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -8511,10 +8517,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8601,7 +8607,7 @@
       <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="49">
         <f>ABS(C7/C11 - 1)</f>
         <v>0.29380140069175587</v>
       </c>
@@ -8619,11 +8625,11 @@
       <c r="C11">
         <v>0.15075551000000001</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="49">
         <f>ABS(C8/C12 - 1)</f>
         <v>0.36757137456932731</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="49">
         <f>ABS(D8/D12 - 1)</f>
         <v>0.2301546338831113</v>
       </c>
@@ -8648,91 +8654,187 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L15" s="9" t="s">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>6.2380320000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>6.2469530000000002E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.91509651000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="49">
+        <f>ABS(C17/C21 - 1)</f>
+        <v>0.19358866200265623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>7.7355460000000001E-2</v>
+      </c>
+      <c r="F21" s="49">
+        <f>ABS(C18/C22 - 1)</f>
+        <v>0.28177508089145187</v>
+      </c>
+      <c r="G21" s="49">
+        <f>ABS(D18/D22 - 1)</f>
+        <v>0.29292251214810661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>8.6977670000000007E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.29419551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N27" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K16" s="9" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K28" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="9" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Timing.xlsx
+++ b/Timing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Heat" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="45">
   <si>
     <t>Thomas Algorithm</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>64x64x32</t>
+  </si>
+  <si>
+    <t>ox optimized</t>
+  </si>
+  <si>
+    <t>od disabled optimization</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -605,6 +611,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE333"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7533,7 +7540,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7872,7 +7879,7 @@
         <v>0.10936348966920406</v>
       </c>
       <c r="C21" s="40">
-        <v>0.13714429327607436</v>
+        <v>0.137144293276074</v>
       </c>
       <c r="D21" s="18">
         <v>0.12842154911666415</v>
@@ -8519,8 +8526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8540,6 +8547,14 @@
         <v>40</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
@@ -8547,7 +8562,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -8568,6 +8583,18 @@
       <c r="C7">
         <v>0.10646332999999999</v>
       </c>
+      <c r="G7">
+        <f>+C7+C8+D8</f>
+        <v>2.0414780800000001</v>
+      </c>
+      <c r="H7">
+        <f>1000*G7</f>
+        <v>2041.4780800000001</v>
+      </c>
+      <c r="I7">
+        <f>+H7/60</f>
+        <v>34.024634666666671</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -8652,11 +8679,24 @@
       <c r="A13" t="s">
         <v>29</v>
       </c>
+      <c r="G13">
+        <f>+C11+C12+D12</f>
+        <v>2.6968719699999997</v>
+      </c>
+      <c r="H13">
+        <f>1000*G13</f>
+        <v>2696.8719699999997</v>
+      </c>
+      <c r="I13">
+        <f>+H13/60</f>
+        <v>44.947866166666664</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
+      <c r="C15" s="64"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -8679,6 +8719,18 @@
       <c r="C17">
         <v>6.2380320000000003E-2</v>
       </c>
+      <c r="G17">
+        <f>+C17+C18+D18</f>
+        <v>1.0399463600000001</v>
+      </c>
+      <c r="H17">
+        <f>1000*G17</f>
+        <v>1039.9463600000001</v>
+      </c>
+      <c r="I17">
+        <f>+H17/60</f>
+        <v>17.332439333333337</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -8769,10 +8821,18 @@
       <c r="A29" t="s">
         <v>34</v>
       </c>
+      <c r="I29">
+        <f>+I13*8</f>
+        <v>359.58292933333331</v>
+      </c>
+      <c r="J29">
+        <f>+I29/60</f>
+        <v>5.9930488222222218</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -8790,6 +8850,9 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
+      <c r="C32">
+        <v>0.43730137000000002</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8797,6 +8860,12 @@
       </c>
       <c r="B33" t="s">
         <v>33</v>
+      </c>
+      <c r="C33">
+        <v>0.45998807000000003</v>
+      </c>
+      <c r="D33">
+        <v>15.0345298</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">

--- a/Timing.xlsx
+++ b/Timing.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1BD7D4-D5AF-4837-BA74-DFEBC94D0BCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FB91A1-81EF-4E03-AEC6-CE55DE06AED4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Bit!$C$3:$F$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Compiler!$A$3:$F$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Flags!$B$2:$L$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Flags!$B$29:$N$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">GridSize!$A$3:$N$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Main!$A$7:$O$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Solvers!$A$32:$F$43</definedName>
@@ -777,84 +777,6 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -909,6 +831,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,6 +925,3490 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Thomas Algorithm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Flags!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Visual Studio Compiler x86</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Flags!$D$12:$K$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ADI (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ADI(/Ox)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Black - Scholes Equation</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Heat Equation</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Flags!$D$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.1908414714911837E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.541850714121376E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12842154911666415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15450147999114949</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13201440576451973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15649229423509403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0748-4416-9758-7B9225DC91B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Flags!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Visual Studio Compiler x64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Flags!$D$12:$K$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ADI (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ADI(/Ox)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Black - Scholes Equation</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Heat Equation</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Flags!$D$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.14296999338754035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10128929748826976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9654326618061138E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14436419917608934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0555139369690036E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13677924484734461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0748-4416-9758-7B9225DC91B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Flags!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel Compiler x86</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Flags!$D$12:$K$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ADI (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ADI(/Ox)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Black - Scholes Equation</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Heat Equation</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Flags!$D$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.11010971350826437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15386246660018155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0131175680126945E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3623874908391285E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5223745957663466E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7597513016725359E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0748-4416-9758-7B9225DC91B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Flags!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel Compiler x64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Flags!$D$12:$K$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ADI (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ADI(/Ox)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Black - Scholes Equation</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Heat Equation</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Flags!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.4840367444482645E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11976400838711598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2961204762682308E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3607020797371803E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2001608759568412E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6463607624590813E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0748-4416-9758-7B9225DC91B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="452042368"/>
+        <c:axId val="452040072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="452042368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452040072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="452040072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452042368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Intel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR" baseline="0"/>
+              <a:t> Solver</a:t>
+            </a:r>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Flags!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Visual Studio Compiler x86</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Flags!$D$12:$K$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ADI (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ADI(/Ox)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Black - Scholes Equation</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Heat Equation</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Flags!$D$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.9579424766612683E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6703172510292537E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2266561296265843E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14138546299232013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8170141409333973E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7140530573548425E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7791-4F72-8F22-42E552C6D499}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Flags!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Visual Studio Compiler x64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Flags!$D$12:$K$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ADI (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ADI(/Ox)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Black - Scholes Equation</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Heat Equation</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Flags!$D$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.8917268571725412E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4112330765743657E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6352423592268073E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8457672169767698E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3047207899298585E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.182980569135339E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7791-4F72-8F22-42E552C6D499}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Flags!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel Compiler x86</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Flags!$D$12:$K$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ADI (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ADI(/Ox)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Black - Scholes Equation</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Heat Equation</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Flags!$D$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.4101414098656746E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0152655685445913E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.5188974262420283E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3390347508705638E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5666064893967961E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1079274112686646E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7791-4F72-8F22-42E552C6D499}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Flags!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel Compiler x64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Flags!$D$12:$K$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ADI (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ADI(/Ox)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Black - Scholes Equation</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Heat Equation</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Flags!$D$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.532568205200981E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15215081420513021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8648903212628056E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6238364140757149E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3180473011612115E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4886037049753229E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7791-4F72-8F22-42E552C6D499}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="450474408"/>
+        <c:axId val="450473752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="450474408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450473752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450473752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450474408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Cyclic Reduction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Flags!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel Compiler x86</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Flags!$D$12:$K$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ADI (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ADI(/Ox)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Black - Scholes Equation</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Heat Equation</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Flags!$D$26:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.618968135846115E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1385782367562545E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16558988278594078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11920578654092451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10578667877657599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12154664657563463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF6B-4211-898D-A01D59004854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Flags!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel Compiler x64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Flags!$D$12:$K$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Crank Nicolson (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Crank Nicolson (/Ox)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ADI (/O2)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ADI(/Ox)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Black - Scholes Equation</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Heat Equation</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Flags!$D$27:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.993595062458104E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12278384614510285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.415069597725954E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1504048743596855E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5825214787788449E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1580529406731865E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF6B-4211-898D-A01D59004854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="449991608"/>
+        <c:axId val="449992920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="449991608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449992920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="449992920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449991608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00AF1AD6-735A-4A90-8619-7620896DDC75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E141CD-BBDC-45E9-BB9E-D63FCFF4E597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5289E03A-A3F3-48CE-9A24-2048BF5EE864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1226,81 +4710,81 @@
   <sheetData>
     <row r="1" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:28" s="49" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
     </row>
     <row r="3" spans="1:28" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
     </row>
     <row r="4" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:28" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="G5" s="93" t="s">
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="G5" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="95"/>
-      <c r="L5" s="93" t="s">
+      <c r="H5" s="124"/>
+      <c r="I5" s="125"/>
+      <c r="L5" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="95"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="125"/>
     </row>
     <row r="6" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="96"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="98"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="98"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="128"/>
     </row>
     <row r="7" spans="1:28" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
       <c r="O7" s="52"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -1496,12 +4980,12 @@
     <row r="13" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
       <c r="B13" s="55"/>
-      <c r="C13" s="119"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="59"/>
       <c r="E13" s="52"/>
       <c r="F13" s="52"/>
       <c r="G13" s="55"/>
-      <c r="H13" s="119"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="59"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
@@ -1703,12 +5187,12 @@
     <row r="19" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
       <c r="B19" s="55"/>
-      <c r="C19" s="119"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="59"/>
       <c r="E19" s="52"/>
       <c r="F19" s="52"/>
       <c r="G19" s="55"/>
-      <c r="H19" s="119"/>
+      <c r="H19" s="93"/>
       <c r="I19" s="59"/>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
@@ -1833,19 +5317,19 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
       <c r="O23" s="52"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -1860,14 +5344,14 @@
       <c r="H24" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="119"/>
+      <c r="I24" s="93"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
       <c r="L24" s="84"/>
       <c r="M24" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="119"/>
+      <c r="N24" s="93"/>
       <c r="O24" s="52"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -1886,7 +5370,7 @@
       <c r="H25" s="54">
         <v>3.8173260000000001E-2</v>
       </c>
-      <c r="I25" s="119"/>
+      <c r="I25" s="93"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
       <c r="L25" s="54" t="s">
@@ -1895,7 +5379,7 @@
       <c r="M25" s="54">
         <v>3.6289719999999998E-2</v>
       </c>
-      <c r="N25" s="119"/>
+      <c r="N25" s="93"/>
       <c r="O25" s="52"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -1914,7 +5398,7 @@
       <c r="H26" s="53">
         <v>3.1172024999999999E-2</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="93"/>
       <c r="J26" s="52"/>
       <c r="K26" s="52"/>
       <c r="L26" s="53" t="s">
@@ -1923,7 +5407,7 @@
       <c r="M26" s="53">
         <v>2.9936080000000004E-2</v>
       </c>
-      <c r="N26" s="119"/>
+      <c r="N26" s="93"/>
       <c r="O26" s="52"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -1942,7 +5426,7 @@
       <c r="H27" s="53">
         <v>3.66188E-2</v>
       </c>
-      <c r="I27" s="119"/>
+      <c r="I27" s="93"/>
       <c r="J27" s="52"/>
       <c r="K27" s="52"/>
       <c r="L27" s="53" t="s">
@@ -1951,7 +5435,7 @@
       <c r="M27" s="53">
         <v>3.7819786666666667E-2</v>
       </c>
-      <c r="N27" s="119"/>
+      <c r="N27" s="93"/>
       <c r="O27" s="52"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -1970,7 +5454,7 @@
       <c r="H28" s="56">
         <v>3.0209250000000003E-2</v>
       </c>
-      <c r="I28" s="119"/>
+      <c r="I28" s="93"/>
       <c r="J28" s="52"/>
       <c r="K28" s="52"/>
       <c r="L28" s="56" t="s">
@@ -1979,7 +5463,7 @@
       <c r="M28" s="56">
         <v>3.0656473333333337E-2</v>
       </c>
-      <c r="N28" s="119"/>
+      <c r="N28" s="93"/>
       <c r="O28" s="52"/>
     </row>
     <row r="29" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -2011,36 +5495,36 @@
       <c r="N30" s="49"/>
     </row>
     <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="109"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="119"/>
     </row>
     <row r="32" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="110"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="112"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="122"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
@@ -2051,57 +5535,57 @@
     </row>
     <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52"/>
-      <c r="B34" s="99" t="s">
+      <c r="B34" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="100"/>
-      <c r="D34" s="127"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="52"/>
       <c r="F34" s="52"/>
-      <c r="G34" s="99" t="s">
+      <c r="G34" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="100"/>
-      <c r="I34" s="127"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="101"/>
       <c r="J34" s="52"/>
       <c r="K34" s="52"/>
-      <c r="L34" s="99" t="s">
+      <c r="L34" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="100"/>
-      <c r="N34" s="127"/>
+      <c r="M34" s="130"/>
+      <c r="N34" s="101"/>
     </row>
     <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="127"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="52"/>
       <c r="F35" s="52"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="127"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="101"/>
       <c r="J35" s="52"/>
       <c r="K35" s="52"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="102"/>
-      <c r="N35" s="127"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="101"/>
     </row>
     <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="128"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="102"/>
       <c r="E36" s="52"/>
       <c r="F36" s="52"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="128"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="102"/>
       <c r="J36" s="52"/>
       <c r="K36" s="52"/>
-      <c r="L36" s="131"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="128"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="102"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
@@ -2501,19 +5985,19 @@
     </row>
     <row r="52" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="52"/>
-      <c r="B52" s="120"/>
+      <c r="B52" s="94"/>
       <c r="C52" s="58"/>
-      <c r="D52" s="119"/>
+      <c r="D52" s="93"/>
       <c r="E52" s="52"/>
       <c r="F52" s="52"/>
-      <c r="G52" s="120"/>
+      <c r="G52" s="94"/>
       <c r="H52" s="58"/>
-      <c r="I52" s="119"/>
+      <c r="I52" s="93"/>
       <c r="J52" s="52"/>
       <c r="K52" s="52"/>
-      <c r="L52" s="120"/>
+      <c r="L52" s="94"/>
       <c r="M52" s="58"/>
-      <c r="N52" s="119"/>
+      <c r="N52" s="93"/>
     </row>
     <row r="53" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="52"/>
@@ -2553,7 +6037,7 @@
       <c r="H54" s="54">
         <v>3.9762064999999999E-2</v>
       </c>
-      <c r="I54" s="119"/>
+      <c r="I54" s="93"/>
       <c r="J54" s="52"/>
       <c r="K54" s="52"/>
       <c r="L54" s="54" t="s">
@@ -2562,7 +6046,7 @@
       <c r="M54" s="54">
         <v>4.039616E-2</v>
       </c>
-      <c r="N54" s="119"/>
+      <c r="N54" s="93"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="52"/>
@@ -2580,7 +6064,7 @@
       <c r="H55" s="53">
         <v>3.1856719999999998E-2</v>
       </c>
-      <c r="I55" s="119"/>
+      <c r="I55" s="93"/>
       <c r="J55" s="52"/>
       <c r="K55" s="52"/>
       <c r="L55" s="53" t="s">
@@ -2589,7 +6073,7 @@
       <c r="M55" s="53">
         <v>3.4020834999999999E-2</v>
       </c>
-      <c r="N55" s="119"/>
+      <c r="N55" s="93"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="52"/>
@@ -2607,7 +6091,7 @@
       <c r="H56" s="53">
         <v>3.8865026666666663E-2</v>
       </c>
-      <c r="I56" s="119"/>
+      <c r="I56" s="93"/>
       <c r="J56" s="52"/>
       <c r="K56" s="52"/>
       <c r="L56" s="53" t="s">
@@ -2616,7 +6100,7 @@
       <c r="M56" s="53">
         <v>3.8896813333333335E-2</v>
       </c>
-      <c r="N56" s="119"/>
+      <c r="N56" s="93"/>
     </row>
     <row r="57" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="52"/>
@@ -2634,7 +6118,7 @@
       <c r="H57" s="56">
         <v>3.0873069999999999E-2</v>
       </c>
-      <c r="I57" s="119"/>
+      <c r="I57" s="93"/>
       <c r="J57" s="52"/>
       <c r="K57" s="52"/>
       <c r="L57" s="56" t="s">
@@ -2643,7 +6127,7 @@
       <c r="M57" s="56">
         <v>3.2500036666666669E-2</v>
       </c>
-      <c r="N57" s="119"/>
+      <c r="N57" s="93"/>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="52"/>
@@ -5173,14 +8657,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="L34:M35"/>
     <mergeCell ref="B2:N3"/>
     <mergeCell ref="B31:N32"/>
     <mergeCell ref="B5:D6"/>
     <mergeCell ref="G5:I6"/>
     <mergeCell ref="L5:N6"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="L34:M35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
@@ -5259,10 +8743,10 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="21" t="s">
@@ -5313,10 +8797,10 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="21" t="s">
@@ -5527,10 +9011,10 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
@@ -5581,10 +9065,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
@@ -5635,10 +9119,10 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
@@ -5731,10 +9215,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:L28"/>
+  <dimension ref="B2:N59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5754,58 +9238,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="113" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="114"/>
+      <c r="E3" s="134"/>
       <c r="F3" s="86"/>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="67" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="124"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="30" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="126"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="121"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
@@ -5827,12 +9311,12 @@
         <v>0.13834808014445665</v>
       </c>
       <c r="I5" s="68"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="121"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
@@ -5854,12 +9338,12 @@
         <v>7.5416398930072681E-2</v>
       </c>
       <c r="I6" s="68"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="121"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
@@ -5881,12 +9365,12 @@
         <v>1.9765580445724962E-2</v>
       </c>
       <c r="I7" s="68"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="121"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
@@ -5908,68 +9392,68 @@
         <v>3.5219888799395416E-2</v>
       </c>
       <c r="I8" s="68"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="113" t="s">
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="114"/>
+      <c r="E12" s="134"/>
       <c r="F12" s="86"/>
-      <c r="G12" s="115" t="s">
+      <c r="G12" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="121"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="95"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="121"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="8" t="s">
         <v>0</v>
       </c>
@@ -5993,10 +9477,10 @@
       <c r="K13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="121"/>
+      <c r="L13" s="95"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="121"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -6026,10 +9510,10 @@
         <f>ABS(Main!N9/Main!D9 - 1)</f>
         <v>0.15649229423509403</v>
       </c>
-      <c r="L14" s="121"/>
+      <c r="L14" s="95"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="121"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
@@ -6059,10 +9543,10 @@
         <f>ABS(Main!N10/Main!D10 - 1)</f>
         <v>0.13677924484734461</v>
       </c>
-      <c r="L15" s="121"/>
+      <c r="L15" s="95"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="121"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
@@ -6092,10 +9576,10 @@
         <f>ABS(Main!N11/Main!D11 - 1)</f>
         <v>8.7597513016725359E-2</v>
       </c>
-      <c r="L16" s="121"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="121"/>
+      <c r="L16" s="95"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="95"/>
       <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
@@ -6125,23 +9609,23 @@
         <f>ABS(Main!N12/Main!D12 - 1)</f>
         <v>7.6463607624590813E-2</v>
       </c>
-      <c r="L17" s="121"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="121"/>
+      <c r="L17" s="95"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="95"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="122"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="72"/>
       <c r="F18" s="66"/>
-      <c r="G18" s="122"/>
+      <c r="G18" s="96"/>
       <c r="H18" s="72"/>
       <c r="I18" s="64"/>
-      <c r="J18" s="122"/>
+      <c r="J18" s="96"/>
       <c r="K18" s="73"/>
-      <c r="L18" s="121"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="121"/>
+      <c r="L18" s="95"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="95"/>
       <c r="C19" s="8" t="s">
         <v>7</v>
       </c>
@@ -6151,7 +9635,7 @@
       <c r="E19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="123"/>
+      <c r="F19" s="97"/>
       <c r="G19" s="27" t="s">
         <v>17</v>
       </c>
@@ -6165,10 +9649,10 @@
       <c r="K19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="121"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="121"/>
+      <c r="L19" s="95"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="95"/>
       <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
@@ -6198,10 +9682,10 @@
         <f>ABS(Main!N15/Main!D15 - 1)</f>
         <v>8.7140530573548425E-2</v>
       </c>
-      <c r="L20" s="121"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="121"/>
+      <c r="L20" s="95"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
       <c r="C21" s="5" t="s">
         <v>4</v>
       </c>
@@ -6231,10 +9715,10 @@
         <f>ABS(Main!N16/Main!D16 - 1)</f>
         <v>1.182980569135339E-2</v>
       </c>
-      <c r="L21" s="121"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="121"/>
+      <c r="L21" s="95"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="95"/>
       <c r="C22" s="5" t="s">
         <v>5</v>
       </c>
@@ -6264,10 +9748,10 @@
         <f>ABS(Main!N17/Main!D17 - 1)</f>
         <v>5.1079274112686646E-2</v>
       </c>
-      <c r="L22" s="121"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="121"/>
+      <c r="L22" s="95"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="95"/>
       <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
@@ -6297,10 +9781,10 @@
         <f>ABS(Main!N18/Main!D18 - 1)</f>
         <v>2.4886037049753229E-2</v>
       </c>
-      <c r="L23" s="121"/>
-    </row>
-    <row r="24" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="121"/>
+      <c r="L23" s="95"/>
+    </row>
+    <row r="24" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="95"/>
       <c r="C24" s="4"/>
       <c r="D24" s="72"/>
       <c r="E24" s="72"/>
@@ -6310,10 +9794,10 @@
       <c r="I24" s="66"/>
       <c r="J24" s="72"/>
       <c r="K24" s="73"/>
-      <c r="L24" s="121"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="121"/>
+      <c r="L24" s="95"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="95"/>
       <c r="C25" s="8" t="s">
         <v>8</v>
       </c>
@@ -6323,7 +9807,7 @@
       <c r="E25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="123"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="27" t="s">
         <v>17</v>
       </c>
@@ -6337,10 +9821,10 @@
       <c r="K25" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="121"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="121"/>
+      <c r="L25" s="95"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="95"/>
       <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
@@ -6370,10 +9854,10 @@
         <f>ABS(Main!N21/Main!D21 - 1)</f>
         <v>0.12154664657563463</v>
       </c>
-      <c r="L26" s="121"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="121"/>
+      <c r="L26" s="95"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="95"/>
       <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
@@ -6403,20 +9887,487 @@
         <f>ABS(Main!N22/Main!D22 - 1)</f>
         <v>6.1580529406731865E-2</v>
       </c>
-      <c r="L27" s="121"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
+      <c r="L27" s="95"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="95"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="95"/>
+      <c r="M49" s="95"/>
+      <c r="N49" s="95"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="95"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="95"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="95"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="95"/>
+      <c r="N52" s="95"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="95"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="95"/>
+      <c r="N53" s="95"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="95"/>
+      <c r="N54" s="95"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="95"/>
+      <c r="M55" s="95"/>
+      <c r="N55" s="95"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="95"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="95"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="95"/>
+      <c r="L56" s="95"/>
+      <c r="M56" s="95"/>
+      <c r="N56" s="95"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="95"/>
+      <c r="N57" s="95"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="95"/>
+      <c r="I58" s="95"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95"/>
+      <c r="L58" s="95"/>
+      <c r="M58" s="95"/>
+      <c r="N58" s="95"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="95"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="95"/>
+      <c r="N59" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6558,7 +10509,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6566,7 +10518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD16023F-9771-4C43-85D6-8C4A49122776}">
   <dimension ref="A2:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -6593,10 +10545,10 @@
       <c r="C2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="116"/>
+      <c r="E2" s="136"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
@@ -7113,15 +11065,15 @@
       <c r="J30" s="20"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="121"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="8" t="s">
         <v>53</v>
       </c>
@@ -7134,10 +11086,10 @@
       <c r="E33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="121"/>
+      <c r="F33" s="95"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="5" t="s">
         <v>3</v>
       </c>
@@ -7152,10 +11104,10 @@
       <c r="E34" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="121"/>
+      <c r="F34" s="95"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="5" t="s">
         <v>4</v>
       </c>
@@ -7170,10 +11122,10 @@
       <c r="E35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="121"/>
+      <c r="F35" s="95"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
+      <c r="A36" s="95"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
@@ -7189,10 +11141,10 @@
         <f>+AVERAGE(C16:E16)</f>
         <v>0.13223675999999998</v>
       </c>
-      <c r="F36" s="121"/>
+      <c r="F36" s="95"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="121"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -7208,18 +11160,18 @@
         <f>+AVERAGE(C17:E17)</f>
         <v>0.10393382</v>
       </c>
-      <c r="F37" s="121"/>
+      <c r="F37" s="95"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="121"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="121"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="95"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="21" t="s">
         <v>40</v>
       </c>
@@ -7232,10 +11184,10 @@
       <c r="E39" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="121"/>
+      <c r="F39" s="95"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="121"/>
+      <c r="A40" s="95"/>
       <c r="B40" s="5" t="s">
         <v>0</v>
       </c>
@@ -7248,10 +11200,10 @@
         <f>ABS(AVERAGE(E36:E37)/AVERAGE(C36:C37)-1)</f>
         <v>6.3843778952563102E-2</v>
       </c>
-      <c r="F40" s="121"/>
+      <c r="F40" s="95"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
+      <c r="A41" s="95"/>
       <c r="B41" s="5" t="s">
         <v>7</v>
       </c>
@@ -7264,10 +11216,10 @@
         <f>ABS(AVERAGE(D36:D37)/AVERAGE(E36:E37)-1)</f>
         <v>1.9147600856973535E-2</v>
       </c>
-      <c r="F41" s="121"/>
+      <c r="F41" s="95"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="121"/>
+      <c r="A42" s="95"/>
       <c r="B42" s="4" t="s">
         <v>8</v>
       </c>
@@ -7279,16 +11231,16 @@
         <f>AVERAGE(D36:D37)/AVERAGE(E36:E37)-1</f>
         <v>-1.9147600856973535E-2</v>
       </c>
-      <c r="E42" s="136"/>
-      <c r="F42" s="121"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="95"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="121"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
+      <c r="A43" s="95"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7342,7 +11294,7 @@
   </sheetPr>
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
@@ -7378,38 +11330,38 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="28" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="113" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="113" t="s">
+      <c r="D4" s="138"/>
+      <c r="E4" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="114" t="s">
+      <c r="F4" s="138"/>
+      <c r="G4" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="112"/>
       <c r="K4" s="8" t="s">
         <v>23</v>
       </c>
@@ -7419,11 +11371,11 @@
       <c r="M4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="121"/>
+      <c r="N4" s="95"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
-      <c r="B5" s="137"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="8" t="s">
         <v>48</v>
       </c>
@@ -7442,8 +11394,8 @@
       <c r="H5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="137"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="111"/>
       <c r="K5" s="8" t="s">
         <v>48</v>
       </c>
@@ -7453,10 +11405,10 @@
       <c r="M5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="121"/>
+      <c r="N5" s="95"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="121"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="86" t="s">
         <v>27</v>
       </c>
@@ -7480,7 +11432,7 @@
       <c r="H6" s="39">
         <v>0.45998807000000003</v>
       </c>
-      <c r="I6" s="121"/>
+      <c r="I6" s="95"/>
       <c r="J6" s="86" t="s">
         <v>27</v>
       </c>
@@ -7496,10 +11448,10 @@
         <f>+ABS(H6/G6-1)</f>
         <v>0.441082260487209</v>
       </c>
-      <c r="N6" s="121"/>
+      <c r="N6" s="95"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="86" t="s">
         <v>26</v>
       </c>
@@ -7523,7 +11475,7 @@
       <c r="H7" s="40">
         <v>0.42730137000000001</v>
       </c>
-      <c r="I7" s="121"/>
+      <c r="I7" s="95"/>
       <c r="J7" s="86" t="s">
         <v>26</v>
       </c>
@@ -7539,41 +11491,41 @@
         <f>+ABS(H7/G7-1)</f>
         <v>0.34656653930744441</v>
       </c>
-      <c r="N7" s="121"/>
+      <c r="N7" s="95"/>
     </row>
     <row r="8" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="121"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="113" t="s">
+      <c r="A9" s="95"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="113" t="s">
+      <c r="D9" s="138"/>
+      <c r="E9" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="118"/>
-      <c r="G9" s="114" t="s">
+      <c r="F9" s="138"/>
+      <c r="G9" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="112"/>
       <c r="K9" s="8" t="s">
         <v>55</v>
       </c>
@@ -7583,11 +11535,11 @@
       <c r="M9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="121"/>
+      <c r="N9" s="95"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
-      <c r="B10" s="137"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="8" t="s">
         <v>48</v>
       </c>
@@ -7606,8 +11558,8 @@
       <c r="H10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="121"/>
-      <c r="J10" s="137"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="111"/>
       <c r="K10" s="8" t="s">
         <v>48</v>
       </c>
@@ -7617,10 +11569,10 @@
       <c r="M10" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="121"/>
+      <c r="N10" s="95"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="86" t="s">
         <v>50</v>
       </c>
@@ -7644,7 +11596,7 @@
       <c r="H11" s="89">
         <v>11.654529800000001</v>
       </c>
-      <c r="I11" s="121"/>
+      <c r="I11" s="95"/>
       <c r="J11" s="86" t="s">
         <v>50</v>
       </c>
@@ -7660,34 +11612,34 @@
         <f>+ABS(H11/G11-1)</f>
         <v>0.36768898257416172</v>
       </c>
-      <c r="N11" s="121"/>
+      <c r="N11" s="95"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="90"/>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="114" t="s">
+      <c r="D13" s="138"/>
+      <c r="E13" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="118"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="J13" s="90"/>
@@ -7797,14 +11749,14 @@
     <row r="17" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="90"/>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="114" t="s">
+      <c r="D18" s="138"/>
+      <c r="E18" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="118"/>
+      <c r="F18" s="138"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="J18" s="90"/>
@@ -7917,16 +11869,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="K11:M11">
     <cfRule type="colorScale" priority="3">

--- a/Timing.xlsx
+++ b/Timing.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FB91A1-81EF-4E03-AEC6-CE55DE06AED4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Main!$A$7:$O$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Solvers!$A$32:$F$43</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -212,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -509,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -831,6 +830,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,18 +890,6 @@
     <xf numFmtId="166" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,6 +906,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,6 +972,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -992,7 +998,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1429,7 +1435,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="452040072"/>
@@ -1488,7 +1494,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="452042368"/>
@@ -1505,6 +1511,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1512,7 +1519,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1536,7 +1542,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1592,6 +1598,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1617,7 +1624,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2054,7 +2061,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="450473752"/>
@@ -2114,7 +2121,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="450474408"/>
@@ -2131,6 +2138,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2156,12 +2164,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2169,7 +2178,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2193,7 +2201,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2244,6 +2252,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2269,7 +2278,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2520,7 +2529,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="449992920"/>
@@ -2579,7 +2588,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="449991608"/>
@@ -2596,6 +2605,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2621,12 +2631,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2634,7 +2645,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2658,7 +2668,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4673,14 +4683,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AB287"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4710,65 +4720,65 @@
   <sheetData>
     <row r="1" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:28" s="49" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
     </row>
     <row r="3" spans="1:28" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
     </row>
     <row r="4" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:28" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="G5" s="123" t="s">
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="G5" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="125"/>
-      <c r="L5" s="123" t="s">
+      <c r="H5" s="128"/>
+      <c r="I5" s="129"/>
+      <c r="L5" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="124"/>
-      <c r="N5" s="125"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="129"/>
     </row>
     <row r="6" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="126"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="128"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="132"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="132"/>
     </row>
     <row r="7" spans="1:28" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
@@ -5066,9 +5076,36 @@
         <v>0.28662670000000001</v>
       </c>
       <c r="O15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
+      <c r="Q15" s="140">
+        <f>+C17/C15-1</f>
+        <v>-0.12442856860610718</v>
+      </c>
+      <c r="R15" s="140">
+        <f>+D17/D15-1</f>
+        <v>-4.8633488133422831E-2</v>
+      </c>
+      <c r="S15" s="140"/>
+      <c r="T15" s="140"/>
+      <c r="U15" s="140"/>
+      <c r="V15" s="140">
+        <f>+H17/H15-1</f>
+        <v>-4.5876350349753681E-2</v>
+      </c>
+      <c r="W15" s="140">
+        <f>+I17/I15-1</f>
+        <v>-2.5657593360547737E-2</v>
+      </c>
+      <c r="X15" s="140"/>
+      <c r="Y15" s="140"/>
+      <c r="Z15" s="140"/>
+      <c r="AA15" s="140">
+        <f t="shared" ref="AA15" si="0">+M17/M15-1</f>
+        <v>7.4193895667128418E-2</v>
+      </c>
+      <c r="AB15" s="140">
+        <f>+N17/N15-1</f>
+        <v>9.5416826136574207E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
@@ -5104,9 +5141,36 @@
         <v>0.24304039999999999</v>
       </c>
       <c r="O16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
+      <c r="Q16" s="140">
+        <f>+C18/C16-1</f>
+        <v>6.8152524498770184E-3</v>
+      </c>
+      <c r="R16" s="140">
+        <f t="shared" ref="R16" si="1">+D18/D16-1</f>
+        <v>9.1804047604158168E-3</v>
+      </c>
+      <c r="S16" s="140"/>
+      <c r="T16" s="140"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="140">
+        <f>+H18/H16-1</f>
+        <v>-3.3410303612651404E-2</v>
+      </c>
+      <c r="W16" s="140">
+        <f>+I18/I16-1</f>
+        <v>-4.2081934414205602E-2</v>
+      </c>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="140"/>
+      <c r="Z16" s="140"/>
+      <c r="AA16" s="140">
+        <f t="shared" ref="AA16:AB16" si="2">+M18/M16-1</f>
+        <v>3.7006690502296102E-2</v>
+      </c>
+      <c r="AB16" s="140">
+        <f t="shared" si="2"/>
+        <v>4.6676889932702581E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
@@ -5311,6 +5375,14 @@
         <v>0.22846767000000001</v>
       </c>
       <c r="O22" s="52"/>
+      <c r="Q22" s="139">
+        <f>+M22/C9-1</f>
+        <v>-0.3549159931791247</v>
+      </c>
+      <c r="R22" s="139">
+        <f>+I9/N22-1</f>
+        <v>0.31792922823609993</v>
+      </c>
       <c r="Z22" s="52"/>
       <c r="AA22" s="52"/>
       <c r="AB22" s="52"/>
@@ -5495,36 +5567,36 @@
       <c r="N30" s="49"/>
     </row>
     <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="119"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="123"/>
     </row>
     <row r="32" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="120"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="122"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="126"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
@@ -5535,40 +5607,40 @@
     </row>
     <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52"/>
-      <c r="B34" s="129" t="s">
+      <c r="B34" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="130"/>
+      <c r="C34" s="114"/>
       <c r="D34" s="101"/>
       <c r="E34" s="52"/>
       <c r="F34" s="52"/>
-      <c r="G34" s="129" t="s">
+      <c r="G34" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="130"/>
+      <c r="H34" s="114"/>
       <c r="I34" s="101"/>
       <c r="J34" s="52"/>
       <c r="K34" s="52"/>
-      <c r="L34" s="129" t="s">
+      <c r="L34" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="130"/>
+      <c r="M34" s="114"/>
       <c r="N34" s="101"/>
     </row>
     <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="132"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="101"/>
       <c r="E35" s="52"/>
       <c r="F35" s="52"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="132"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="116"/>
       <c r="I35" s="101"/>
       <c r="J35" s="52"/>
       <c r="K35" s="52"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="132"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="116"/>
       <c r="N35" s="101"/>
     </row>
     <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5639,9 +5711,27 @@
       <c r="M38" s="58">
         <v>4.2404820000000003E-2</v>
       </c>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="52"/>
+      <c r="Q38" s="140">
+        <f>+C40/C38-1</f>
+        <v>3.1794981002835954E-2</v>
+      </c>
+      <c r="R38" s="140"/>
+      <c r="S38" s="140"/>
+      <c r="T38" s="140"/>
+      <c r="U38" s="140"/>
+      <c r="V38" s="140">
+        <f>+H40/H38-1</f>
+        <v>1.0102037939030417E-4</v>
+      </c>
+      <c r="W38" s="140"/>
+      <c r="X38" s="140"/>
+      <c r="Y38" s="140"/>
+      <c r="Z38" s="140"/>
+      <c r="AA38" s="140">
+        <f t="shared" ref="AA38:AA39" si="3">+M40/M38-1</f>
+        <v>-8.5420713966006701E-2</v>
+      </c>
+      <c r="AB38" s="140"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="52"/>
@@ -5667,9 +5757,27 @@
       <c r="M39" s="59">
         <v>3.4005109999999998E-2</v>
       </c>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
+      <c r="Q39" s="140">
+        <f>+C41/C39-1</f>
+        <v>-4.0425068569250988E-2</v>
+      </c>
+      <c r="R39" s="140"/>
+      <c r="S39" s="140"/>
+      <c r="T39" s="140"/>
+      <c r="U39" s="140"/>
+      <c r="V39" s="140">
+        <f>+H41/H39-1</f>
+        <v>2.4659854243291646E-2</v>
+      </c>
+      <c r="W39" s="140"/>
+      <c r="X39" s="140"/>
+      <c r="Y39" s="140"/>
+      <c r="Z39" s="140"/>
+      <c r="AA39" s="140">
+        <f t="shared" si="3"/>
+        <v>-6.0150959664591497E-2</v>
+      </c>
+      <c r="AB39" s="140"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="52"/>
@@ -5978,6 +6086,10 @@
       </c>
       <c r="M51" s="56">
         <v>3.0870640000000001E-2</v>
+      </c>
+      <c r="Q51" s="139">
+        <f>+M51/C38-1</f>
+        <v>-0.30506622556808016</v>
       </c>
       <c r="Z51" s="52"/>
       <c r="AA51" s="52"/>
@@ -8672,7 +8784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636D6193-666E-4356-A0CE-AA314AF31E98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8934,7 +9046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D11462-734C-47BB-9632-EE1ADB850D7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9211,14 +9323,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3DD515-5493-4D95-8552-57DC817F8DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:N59"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10515,7 +10627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD16023F-9771-4C43-85D6-8C4A49122776}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -11288,14 +11400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11363,7 +11475,7 @@
       <c r="I4" s="95"/>
       <c r="J4" s="112"/>
       <c r="K4" s="8" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>23</v>
@@ -11869,6 +11981,9 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
@@ -11876,9 +11991,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="K11:M11">
     <cfRule type="colorScale" priority="3">
